--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_242__Reeval_Taguchi_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_242__Reeval_Taguchi_Modell_1.3.xlsx
@@ -5417,7 +5417,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>88.65550231933594</c:v>
+                  <c:v>88.655517578125</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>94.85096740722656</c:v>
@@ -5426,28 +5426,28 @@
                   <c:v>96.62516784667969</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56.22472381591797</c:v>
+                  <c:v>56.2247200012207</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.10992050170898</c:v>
+                  <c:v>32.10991668701172</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52.37263107299805</c:v>
+                  <c:v>52.37261581420898</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>95.92036437988281</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>97.33589172363281</c:v>
+                  <c:v>97.33587646484375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>88.10963439941406</c:v>
+                  <c:v>88.10964965820312</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>97.19830322265625</c:v>
+                  <c:v>97.19828796386719</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49.10650253295898</c:v>
+                  <c:v>49.10650634765625</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>97.36781311035156</c:v>
@@ -5462,13 +5462,13 @@
                   <c:v>36.73623657226562</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>72.23133850097656</c:v>
+                  <c:v>72.23135375976562</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>72.66987609863281</c:v>
+                  <c:v>72.66989135742188</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21.72981262207031</c:v>
+                  <c:v>21.72981643676758</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>97.82872009277344</c:v>
@@ -5477,19 +5477,19 @@
                   <c:v>78.47085571289062</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>57.06864929199219</c:v>
+                  <c:v>57.06865692138672</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>64.6651611328125</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>59.41691970825195</c:v>
+                  <c:v>59.41693115234375</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>90.10891723632812</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>97.45915222167969</c:v>
+                  <c:v>97.45913696289062</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>94.85723876953125</c:v>
@@ -5501,13 +5501,13 @@
                   <c:v>97.19282531738281</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>67.216796875</c:v>
+                  <c:v>67.21681213378906</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>98.28802490234375</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>53.46233367919922</c:v>
+                  <c:v>53.46233749389648</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>79.46243286132812</c:v>
@@ -5516,40 +5516,40 @@
                   <c:v>97.32716369628906</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>85.24337768554688</c:v>
+                  <c:v>85.24339294433594</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>85.61468505859375</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36.66462326049805</c:v>
+                  <c:v>36.66461944580078</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>89.67582702636719</c:v>
+                  <c:v>89.67581176757812</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>96.64082336425781</c:v>
+                  <c:v>96.64080810546875</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>59.76213455200195</c:v>
+                  <c:v>59.76214218139648</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>94.32662963867188</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>38.48588562011719</c:v>
+                  <c:v>38.48588180541992</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>87.93861389160156</c:v>
+                  <c:v>87.93862915039062</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>84.34202575683594</c:v>
+                  <c:v>84.34201049804688</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>79.5072021484375</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>92.13177490234375</c:v>
+                  <c:v>92.13175964355469</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>97.05531311035156</c:v>
@@ -5558,19 +5558,19 @@
                   <c:v>84.64311218261719</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>97.17123413085938</c:v>
+                  <c:v>97.17121887207031</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>97.35693359375</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>83.0283203125</c:v>
+                  <c:v>83.02830505371094</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>86.26475524902344</c:v>
+                  <c:v>86.2647705078125</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>97.49613952636719</c:v>
+                  <c:v>97.49615478515625</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>75.76773071289062</c:v>
@@ -5585,10 +5585,10 @@
                   <c:v>96.01225280761719</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>77.77166748046875</c:v>
+                  <c:v>77.77165222167969</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>51.76218795776367</c:v>
+                  <c:v>51.76218032836914</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>96.69816589355469</c:v>
@@ -5597,7 +5597,7 @@
                   <c:v>49.73394012451172</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>87.21696472167969</c:v>
+                  <c:v>87.21694946289062</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>98.10858154296875</c:v>
@@ -5633,16 +5633,16 @@
                   <c:v>82.17277526855469</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>97.695556640625</c:v>
+                  <c:v>97.69554138183594</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>97.58052062988281</c:v>
+                  <c:v>97.58050537109375</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>27.53920364379883</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>66.08737182617188</c:v>
+                  <c:v>66.08737945556641</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>85.92547607421875</c:v>
@@ -5657,34 +5657,34 @@
                   <c:v>62.33256530761719</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>53.49970626831055</c:v>
+                  <c:v>53.49971008300781</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>97.63420104980469</c:v>
+                  <c:v>97.63418579101562</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>97.69619750976562</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>84.81956481933594</c:v>
+                  <c:v>84.819580078125</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>61.39540481567383</c:v>
+                  <c:v>61.39541244506836</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>89.80828857421875</c:v>
+                  <c:v>89.80827331542969</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>96.32406616210938</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>78.40840148925781</c:v>
+                  <c:v>78.40838623046875</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>79.97377014160156</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>63.3979377746582</c:v>
+                  <c:v>63.39794540405273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6379,7 +6379,7 @@
         <v>88.3473</v>
       </c>
       <c r="F2">
-        <v>88.65550231933594</v>
+        <v>88.655517578125</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6475,7 +6475,7 @@
         <v>56.1604</v>
       </c>
       <c r="F5">
-        <v>56.22472381591797</v>
+        <v>56.2247200012207</v>
       </c>
       <c r="G5">
         <v>99</v>
@@ -6507,7 +6507,7 @@
         <v>19.1716</v>
       </c>
       <c r="F6">
-        <v>32.10992050170898</v>
+        <v>32.10991668701172</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6539,7 +6539,7 @@
         <v>58.4074</v>
       </c>
       <c r="F7">
-        <v>52.37263107299805</v>
+        <v>52.37261581420898</v>
       </c>
       <c r="G7">
         <v>99</v>
@@ -6591,7 +6591,7 @@
         <v>97.65470000000001</v>
       </c>
       <c r="F9">
-        <v>97.33589172363281</v>
+        <v>97.33587646484375</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -6611,7 +6611,7 @@
         <v>89.3151</v>
       </c>
       <c r="F10">
-        <v>88.10963439941406</v>
+        <v>88.10964965820312</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6631,7 +6631,7 @@
         <v>97.2368</v>
       </c>
       <c r="F11">
-        <v>97.19830322265625</v>
+        <v>97.19828796386719</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6651,7 +6651,7 @@
         <v>50.2202</v>
       </c>
       <c r="F12">
-        <v>49.10650253295898</v>
+        <v>49.10650634765625</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6751,7 +6751,7 @@
         <v>73.52419999999999</v>
       </c>
       <c r="F17">
-        <v>72.23133850097656</v>
+        <v>72.23135375976562</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6771,7 +6771,7 @@
         <v>72.99850000000001</v>
       </c>
       <c r="F18">
-        <v>72.66987609863281</v>
+        <v>72.66989135742188</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6791,7 +6791,7 @@
         <v>12.1498</v>
       </c>
       <c r="F19">
-        <v>21.72981262207031</v>
+        <v>21.72981643676758</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>57.9449</v>
       </c>
       <c r="F22">
-        <v>57.06864929199219</v>
+        <v>57.06865692138672</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>52.4045</v>
       </c>
       <c r="F24">
-        <v>59.41691970825195</v>
+        <v>59.41693115234375</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>96.85760000000001</v>
       </c>
       <c r="F26">
-        <v>97.45915222167969</v>
+        <v>97.45913696289062</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7011,7 +7011,7 @@
         <v>67.24550000000001</v>
       </c>
       <c r="F30">
-        <v>67.216796875</v>
+        <v>67.21681213378906</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7051,7 +7051,7 @@
         <v>53.6367</v>
       </c>
       <c r="F32">
-        <v>53.46233367919922</v>
+        <v>53.46233749389648</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7111,7 +7111,7 @@
         <v>86.1662</v>
       </c>
       <c r="F35">
-        <v>85.24337768554688</v>
+        <v>85.24339294433594</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7151,7 +7151,7 @@
         <v>38.4808</v>
       </c>
       <c r="F37">
-        <v>36.66462326049805</v>
+        <v>36.66461944580078</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>89.67829999999999</v>
       </c>
       <c r="F38">
-        <v>89.67582702636719</v>
+        <v>89.67581176757812</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>96.8449</v>
       </c>
       <c r="F39">
-        <v>96.64082336425781</v>
+        <v>96.64080810546875</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7211,7 +7211,7 @@
         <v>58.3298</v>
       </c>
       <c r="F40">
-        <v>59.76213455200195</v>
+        <v>59.76214218139648</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>38.6711</v>
       </c>
       <c r="F42">
-        <v>38.48588562011719</v>
+        <v>38.48588180541992</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>86.58159999999999</v>
       </c>
       <c r="F43">
-        <v>87.93861389160156</v>
+        <v>87.93862915039062</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>84.637</v>
       </c>
       <c r="F44">
-        <v>84.34202575683594</v>
+        <v>84.34201049804688</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>90.6163</v>
       </c>
       <c r="F46">
-        <v>92.13177490234375</v>
+        <v>92.13175964355469</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>96.76430000000001</v>
       </c>
       <c r="F49">
-        <v>97.17123413085938</v>
+        <v>97.17121887207031</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>83.31910000000001</v>
       </c>
       <c r="F51">
-        <v>83.0283203125</v>
+        <v>83.02830505371094</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>85.7353</v>
       </c>
       <c r="F52">
-        <v>86.26475524902344</v>
+        <v>86.2647705078125</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>97.3824</v>
       </c>
       <c r="F53">
-        <v>97.49613952636719</v>
+        <v>97.49615478515625</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>79.8115</v>
       </c>
       <c r="F58">
-        <v>77.77166748046875</v>
+        <v>77.77165222167969</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>51.2359</v>
       </c>
       <c r="F59">
-        <v>51.76218795776367</v>
+        <v>51.76218032836914</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>87.61150000000001</v>
       </c>
       <c r="F62">
-        <v>87.21696472167969</v>
+        <v>87.21694946289062</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>86.4927</v>
       </c>
       <c r="F74">
-        <v>97.695556640625</v>
+        <v>97.69554138183594</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>97.50060000000001</v>
       </c>
       <c r="F75">
-        <v>97.58052062988281</v>
+        <v>97.58050537109375</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>64.7646</v>
       </c>
       <c r="F77">
-        <v>66.08737182617188</v>
+        <v>66.08737945556641</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>52.9032</v>
       </c>
       <c r="F82">
-        <v>53.49970626831055</v>
+        <v>53.49971008300781</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>97.51990000000001</v>
       </c>
       <c r="F83">
-        <v>97.63420104980469</v>
+        <v>97.63418579101562</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>85.0705</v>
       </c>
       <c r="F85">
-        <v>84.81956481933594</v>
+        <v>84.819580078125</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>59.665</v>
       </c>
       <c r="F86">
-        <v>61.39540481567383</v>
+        <v>61.39541244506836</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>92.9709</v>
       </c>
       <c r="F87">
-        <v>89.80828857421875</v>
+        <v>89.80827331542969</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>80.2504</v>
       </c>
       <c r="F89">
-        <v>78.40840148925781</v>
+        <v>78.40838623046875</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>64.253</v>
       </c>
       <c r="F91">
-        <v>63.3979377746582</v>
+        <v>63.39794540405273</v>
       </c>
     </row>
     <row r="92" spans="1:6">
